--- a/مهارات_ومصطلحات.xlsx
+++ b/مهارات_ومصطلحات.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\OneDrive\Desktop\مسابقة الحوسبة للغة العربية\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{718D77B7-6857-437A-9F30-69DEAD36D81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67945E40-CBB2-4356-A440-17A6331BDA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2851,8 +2851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="A206" sqref="A206"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/مهارات_ومصطلحات.xlsx
+++ b/مهارات_ومصطلحات.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\OneDrive\Desktop\مسابقة الحوسبة للغة العربية\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67945E40-CBB2-4356-A440-17A6331BDA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40B1006-F1AA-4E72-8C7D-D8DCB23BD863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1359,9 +1359,6 @@
     <t>الضمير المستتر</t>
   </si>
   <si>
-    <t>الجملة الاسمية والفعلية</t>
-  </si>
-  <si>
     <t>بناء الجمل الاسمية</t>
   </si>
   <si>
@@ -2448,9 +2445,6 @@
     <t>إجراء المناقشات</t>
   </si>
   <si>
-    <t>التحاور والتفاوضات</t>
-  </si>
-  <si>
     <t>📜 النص العلمي:
 "الحوار البنّاء يُبنى على الاحترام المتبادل، والابتعاد عن التهكم أو المقاطعة، ويهدف إلى الوصول إلى نتيجة إيجابية أو تفاهم مشترك لا مجرد الانتصار في الجدل."
 📚 المصدر:
@@ -2471,6 +2465,12 @@
   </si>
   <si>
     <t>الحديث بشكل فصيح</t>
+  </si>
+  <si>
+    <t>الجمل الاسمية والفعلية</t>
+  </si>
+  <si>
+    <t>التحاور والمفاوضات</t>
   </si>
 </sst>
 </file>
@@ -2556,10 +2556,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2851,8 +2847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="B206" sqref="B206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4107,772 +4103,772 @@
     </row>
     <row r="114" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
+        <v>450</v>
+      </c>
+      <c r="B114" t="s">
         <v>246</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>246</v>
+        <v>450</v>
       </c>
       <c r="B115" t="s">
+        <v>248</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>246</v>
+        <v>450</v>
       </c>
       <c r="B116" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
+        <v>252</v>
+      </c>
+      <c r="B117" t="s">
         <v>253</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B118" t="s">
+        <v>255</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B119" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
+        <v>258</v>
+      </c>
+      <c r="B120" t="s">
         <v>259</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B121" t="s">
+        <v>261</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B122" t="s">
+        <v>263</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B123" t="s">
+        <v>265</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B124" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B125" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B126" t="s">
+        <v>271</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B127" t="s">
+        <v>273</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B128" t="s">
+        <v>275</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B129" t="s">
+        <v>277</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B130" t="s">
+        <v>279</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
+        <v>281</v>
+      </c>
+      <c r="B131" t="s">
         <v>282</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B132" t="s">
+        <v>284</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B133" t="s">
+        <v>286</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B134" t="s">
+        <v>288</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B135" t="s">
+        <v>290</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B136" t="s">
+        <v>292</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B137" t="s">
+        <v>294</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B138" t="s">
+        <v>296</v>
+      </c>
+      <c r="C138" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B139" t="s">
+        <v>298</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B140" t="s">
+        <v>300</v>
+      </c>
+      <c r="C140" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B141" t="s">
+        <v>302</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B142" t="s">
+        <v>304</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B143" t="s">
+        <v>306</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B144" t="s">
+        <v>308</v>
+      </c>
+      <c r="C144" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B145" t="s">
+        <v>310</v>
+      </c>
+      <c r="C145" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B146" t="s">
+        <v>312</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B147" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B148" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B149" t="s">
+        <v>318</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B150" t="s">
+        <v>320</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B151" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B152" t="s">
+        <v>324</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B153" t="s">
+        <v>326</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B154" t="s">
+        <v>328</v>
+      </c>
+      <c r="C154" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B155" t="s">
+        <v>330</v>
+      </c>
+      <c r="C155" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B156" t="s">
+        <v>332</v>
+      </c>
+      <c r="C156" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B157" t="s">
+        <v>334</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B158" t="s">
+        <v>336</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B159" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B160" t="s">
+        <v>340</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B161" t="s">
+        <v>342</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B162" t="s">
+        <v>344</v>
+      </c>
+      <c r="C162" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B163" t="s">
+        <v>346</v>
+      </c>
+      <c r="C163" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B164" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B165" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B166" t="s">
+        <v>352</v>
+      </c>
+      <c r="C166" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B167" t="s">
+        <v>354</v>
+      </c>
+      <c r="C167" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B168" t="s">
+        <v>356</v>
+      </c>
+      <c r="C168" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B169" t="s">
+        <v>358</v>
+      </c>
+      <c r="C169" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B170" t="s">
+        <v>360</v>
+      </c>
+      <c r="C170" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C171" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B172" t="s">
+        <v>364</v>
+      </c>
+      <c r="C172" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B173" t="s">
+        <v>366</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B174" t="s">
+        <v>368</v>
+      </c>
+      <c r="C174" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B175" t="s">
+        <v>370</v>
+      </c>
+      <c r="C175" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B176" t="s">
+        <v>372</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B177" t="s">
+        <v>374</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B178" t="s">
+        <v>376</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B179" t="s">
+        <v>378</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B180" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B181" t="s">
+        <v>382</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B182" t="s">
+        <v>384</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B183" t="s">
+        <v>386</v>
+      </c>
+      <c r="C183" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="144" x14ac:dyDescent="0.3">
@@ -4880,10 +4876,10 @@
         <v>78</v>
       </c>
       <c r="B184" t="s">
+        <v>388</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="144" x14ac:dyDescent="0.3">
@@ -4891,98 +4887,98 @@
         <v>78</v>
       </c>
       <c r="B185" t="s">
+        <v>390</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B186" t="s">
+        <v>392</v>
+      </c>
+      <c r="C186" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B187" t="s">
+        <v>394</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B188" t="s">
+        <v>396</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B189" t="s">
+        <v>398</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B190" t="s">
+        <v>400</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B191" t="s">
+        <v>402</v>
+      </c>
+      <c r="C191" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B192" t="s">
+        <v>404</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B193" t="s">
+        <v>406</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
@@ -4990,131 +4986,131 @@
         <v>213</v>
       </c>
       <c r="B194" t="s">
+        <v>408</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B195" t="s">
+        <v>410</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
+        <v>425</v>
+      </c>
+      <c r="B196" t="s">
         <v>426</v>
       </c>
-      <c r="B196" t="s">
+      <c r="C196" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B197" t="s">
+        <v>428</v>
+      </c>
+      <c r="C197" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B198" t="s">
+        <v>430</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
+        <v>433</v>
+      </c>
+      <c r="B199" t="s">
         <v>434</v>
       </c>
-      <c r="B199" t="s">
+      <c r="C199" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B200" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B201" t="s">
+        <v>438</v>
+      </c>
+      <c r="C201" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B202" t="s">
+        <v>440</v>
+      </c>
+      <c r="C202" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B203" t="s">
+        <v>442</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B204" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B205" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
